--- a/Southborough data template.xlsx
+++ b/Southborough data template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philc\Documents\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7CD6AC-0759-4BA5-8D6A-08621383BCD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D388D702-8252-4D6F-A7A2-E9F05E11C0D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{F2204BB0-84F1-4939-96A6-DE4D587237F9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>Overall Match stats</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -598,20 +601,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94960FB2-6B1E-4295-898A-2E85F26C5D0C}">
-  <dimension ref="A2:AC15"/>
+  <dimension ref="A2:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -699,8 +702,11 @@
       <c r="AC3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AD3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>70</v>
       </c>
@@ -710,9 +716,30 @@
       <c r="E4" t="s">
         <v>70</v>
       </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
       <c r="H4" t="s">
         <v>70</v>
       </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
       <c r="N4" t="s">
         <v>70</v>
       </c>
@@ -728,6 +755,15 @@
       <c r="R4" t="s">
         <v>70</v>
       </c>
+      <c r="S4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" t="s">
+        <v>70</v>
+      </c>
       <c r="V4" t="s">
         <v>70</v>
       </c>
@@ -743,13 +779,25 @@
       <c r="Z4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -796,12 +844,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -836,12 +884,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -876,12 +924,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>54</v>
       </c>

--- a/Southborough data template.xlsx
+++ b/Southborough data template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philc\Documents\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D388D702-8252-4D6F-A7A2-E9F05E11C0D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DC683A-5E30-4FF8-B92B-84746E01835A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{F2204BB0-84F1-4939-96A6-DE4D587237F9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <t>Overall Match stats</t>
   </si>
@@ -604,7 +604,7 @@
   <dimension ref="A2:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -707,6 +707,12 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
       <c r="C4" t="s">
         <v>70</v>
       </c>
@@ -842,6 +848,56 @@
       </c>
       <c r="Q6" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">

--- a/Southborough data template.xlsx
+++ b/Southborough data template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philc\Documents\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philc\Documents\Python\Southborough stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DC683A-5E30-4FF8-B92B-84746E01835A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683930A8-308E-4937-AA94-F3826E71358B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{F2204BB0-84F1-4939-96A6-DE4D587237F9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>Overall Match stats</t>
   </si>
@@ -601,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94960FB2-6B1E-4295-898A-2E85F26C5D0C}">
-  <dimension ref="A2:AD15"/>
+  <dimension ref="A2:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -940,6 +940,41 @@
         <v>51</v>
       </c>
     </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>52</v>
@@ -980,6 +1015,41 @@
         <v>61</v>
       </c>
     </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>53</v>
@@ -1015,6 +1085,38 @@
       </c>
       <c r="J15" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
